--- a/tidy/descriptor.xlsx
+++ b/tidy/descriptor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamara\Documents\Repositories\SIM-Sonora\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamara\Documents\Repositories\SIM26\tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07224398-A2C0-467A-8C16-DA049F5F4E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D083E76A-AD06-4423-AE92-3D14AC7AF3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1633,7 +1633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1644,11 +1644,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1656,25 +1667,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1984,27 +1980,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118C7A39-EDBB-4B17-955E-725287FEB143}">
   <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="28.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2024,30 +2020,30 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>130</v>
       </c>
@@ -2058,11 +2054,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>131</v>
       </c>
@@ -2073,11 +2069,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="14" t="s">
         <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2090,11 +2086,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>130</v>
       </c>
@@ -2105,11 +2101,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>131</v>
       </c>
@@ -2120,11 +2116,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2137,11 +2133,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
         <v>130</v>
       </c>
@@ -2152,11 +2148,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
         <v>131</v>
       </c>
@@ -2167,10 +2163,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>272</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2184,8 +2180,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="5" t="s">
         <v>273</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2199,8 +2195,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="5" t="s">
         <v>274</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2214,8 +2210,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
         <v>275</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2229,8 +2225,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2244,8 +2240,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="5" t="s">
         <v>277</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2259,8 +2255,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="5" t="s">
         <v>278</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2274,8 +2270,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="5" t="s">
         <v>279</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2291,8 +2287,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2308,16 +2304,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="1">
@@ -2329,12 +2325,12 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="1">
         <v>2000</v>
       </c>
@@ -2344,12 +2340,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="1">
         <v>2010</v>
       </c>
@@ -2359,12 +2355,12 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="1">
         <v>2020</v>
       </c>
@@ -2374,12 +2370,12 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2391,12 +2387,12 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2406,12 +2402,12 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2423,12 +2419,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2438,12 +2434,12 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
@@ -2453,12 +2449,12 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2470,12 +2466,12 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
@@ -2485,11 +2481,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2502,11 +2498,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
@@ -2517,11 +2513,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="1" t="s">
         <v>16</v>
       </c>
@@ -2532,11 +2528,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2549,11 +2545,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2564,11 +2560,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
@@ -2579,11 +2575,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="1" t="s">
         <v>21</v>
       </c>
@@ -2594,11 +2590,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2611,12 +2607,12 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2628,12 +2624,12 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="1" t="s">
         <v>26</v>
       </c>
@@ -2643,12 +2639,12 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="1" t="s">
         <v>27</v>
       </c>
@@ -2658,12 +2654,12 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="1" t="s">
         <v>28</v>
       </c>
@@ -2673,12 +2669,12 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="1" t="s">
         <v>29</v>
       </c>
@@ -2688,10 +2684,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="5" t="s">
         <v>267</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2707,8 +2703,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="5" t="s">
         <v>266</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2724,8 +2720,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="5" t="s">
         <v>289</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2741,8 +2737,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="5" t="s">
         <v>290</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2758,8 +2754,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="5" t="s">
         <v>291</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2775,8 +2771,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="5" t="s">
         <v>292</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2792,8 +2788,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="5" t="s">
         <v>293</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2809,8 +2805,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="5" t="s">
         <v>294</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2826,8 +2822,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="10"/>
+      <c r="B52" s="5" t="s">
         <v>295</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2843,8 +2839,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="5" t="s">
         <v>312</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2860,8 +2856,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="5" t="s">
         <v>313</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2877,8 +2873,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="5" t="s">
         <v>314</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2894,8 +2890,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="10" t="s">
+      <c r="A56" s="10"/>
+      <c r="B56" s="5" t="s">
         <v>315</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2911,8 +2907,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="10"/>
+      <c r="B57" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2928,8 +2924,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="10"/>
+      <c r="B58" s="5" t="s">
         <v>317</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2945,8 +2941,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="10"/>
+      <c r="B59" s="5" t="s">
         <v>318</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2962,8 +2958,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="10"/>
+      <c r="B60" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2979,8 +2975,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="10"/>
+      <c r="B61" s="5" t="s">
         <v>320</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2996,8 +2992,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="10"/>
+      <c r="B62" s="5" t="s">
         <v>321</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3013,8 +3009,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="10"/>
+      <c r="B63" s="5" t="s">
         <v>322</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3030,8 +3026,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="10" t="s">
+      <c r="A64" s="10"/>
+      <c r="B64" s="5" t="s">
         <v>311</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -3047,8 +3043,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="10"/>
+      <c r="B65" s="5" t="s">
         <v>310</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3064,8 +3060,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="10"/>
+      <c r="B66" s="5" t="s">
         <v>309</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -3081,8 +3077,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="10"/>
+      <c r="B67" s="5" t="s">
         <v>308</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3098,8 +3094,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="10"/>
+      <c r="B68" s="5" t="s">
         <v>307</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3115,8 +3111,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="10"/>
+      <c r="B69" s="5" t="s">
         <v>306</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3132,8 +3128,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="10"/>
+      <c r="B70" s="5" t="s">
         <v>305</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3149,8 +3145,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="10"/>
+      <c r="B71" s="5" t="s">
         <v>304</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3166,8 +3162,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="10"/>
+      <c r="B72" s="5" t="s">
         <v>303</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3183,8 +3179,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="10" t="s">
+      <c r="A73" s="10"/>
+      <c r="B73" s="5" t="s">
         <v>302</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3200,8 +3196,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="10"/>
+      <c r="B74" s="5" t="s">
         <v>300</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3217,8 +3213,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="10"/>
+      <c r="B75" s="5" t="s">
         <v>301</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3234,8 +3230,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="10"/>
+      <c r="B76" s="5" t="s">
         <v>296</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3251,8 +3247,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="10"/>
+      <c r="B77" s="5" t="s">
         <v>299</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3268,8 +3264,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="10"/>
+      <c r="B78" s="5" t="s">
         <v>297</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -3285,8 +3281,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="10"/>
+      <c r="B79" s="5" t="s">
         <v>298</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3302,13 +3298,13 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -3321,11 +3317,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="10" t="s">
+      <c r="A81" s="10"/>
+      <c r="B81" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C81" s="5"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="1" t="s">
         <v>63</v>
       </c>
@@ -3336,11 +3332,11 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="10"/>
+      <c r="B82" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="14" t="s">
         <v>325</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -3353,11 +3349,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="10"/>
+      <c r="B83" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="1" t="s">
         <v>327</v>
       </c>
@@ -3368,11 +3364,11 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="10"/>
+      <c r="B84" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="1" t="s">
         <v>328</v>
       </c>
@@ -3383,11 +3379,11 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="10" t="s">
+      <c r="A85" s="10"/>
+      <c r="B85" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="1" t="s">
         <v>64</v>
       </c>
@@ -3398,11 +3394,11 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="10"/>
+      <c r="B86" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -3415,11 +3411,11 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="10" t="s">
+      <c r="A87" s="10"/>
+      <c r="B87" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="1" t="s">
         <v>66</v>
       </c>
@@ -3430,11 +3426,11 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="10"/>
+      <c r="B88" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="1" t="s">
         <v>67</v>
       </c>
@@ -3445,8 +3441,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="10"/>
+      <c r="B89" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3460,10 +3456,10 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="5" t="s">
         <v>264</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3477,11 +3473,11 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="10"/>
+      <c r="B91" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -3494,12 +3490,12 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="10" t="s">
+      <c r="A92" s="10"/>
+      <c r="B92" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5" t="s">
+      <c r="C92" s="14"/>
+      <c r="D92" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -3511,12 +3507,12 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="10" t="s">
+      <c r="A93" s="10"/>
+      <c r="B93" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="1" t="s">
         <v>72</v>
       </c>
@@ -3526,12 +3522,12 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="10"/>
+      <c r="B94" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="1" t="s">
         <v>73</v>
       </c>
@@ -3541,11 +3537,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="10" t="s">
+      <c r="A95" s="10"/>
+      <c r="B95" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="1" t="s">
         <v>74</v>
       </c>
@@ -3556,8 +3552,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="10" t="s">
+      <c r="A96" s="10"/>
+      <c r="B96" s="5" t="s">
         <v>262</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3571,8 +3567,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="10"/>
+      <c r="B97" s="5" t="s">
         <v>263</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3586,10 +3582,10 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3605,8 +3601,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="10" t="s">
+      <c r="A99" s="10"/>
+      <c r="B99" s="5" t="s">
         <v>256</v>
       </c>
       <c r="C99" s="1"/>
@@ -3620,11 +3616,11 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="10"/>
+      <c r="B100" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -3637,11 +3633,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="10" t="s">
+      <c r="A101" s="10"/>
+      <c r="B101" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="4"/>
+      <c r="C101" s="10"/>
       <c r="D101" s="1" t="s">
         <v>252</v>
       </c>
@@ -3652,11 +3648,11 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="10" t="s">
+      <c r="A102" s="10"/>
+      <c r="B102" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="10" t="s">
         <v>251</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -3669,11 +3665,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="10" t="s">
+      <c r="A103" s="10"/>
+      <c r="B103" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="4"/>
+      <c r="C103" s="10"/>
       <c r="D103" s="1" t="s">
         <v>124</v>
       </c>
@@ -3684,11 +3680,11 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="10" t="s">
+      <c r="A104" s="10"/>
+      <c r="B104" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C104" s="4"/>
+      <c r="C104" s="10"/>
       <c r="D104" s="1" t="s">
         <v>125</v>
       </c>
@@ -3701,11 +3697,11 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="10" t="s">
+      <c r="A105" s="10"/>
+      <c r="B105" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C105" s="4"/>
+      <c r="C105" s="10"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
         <v>127</v>
@@ -3716,10 +3712,10 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="5" t="s">
         <v>363</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -3733,8 +3729,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="10" t="s">
+      <c r="A107" s="10"/>
+      <c r="B107" s="5" t="s">
         <v>364</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -3748,14 +3744,14 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="10" t="s">
+      <c r="A108" s="10"/>
+      <c r="B108" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -3767,12 +3763,12 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="10" t="s">
+      <c r="A109" s="10"/>
+      <c r="B109" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
       <c r="E109" s="1" t="s">
         <v>33</v>
       </c>
@@ -3782,12 +3778,12 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="10"/>
+      <c r="B110" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
       <c r="E110" s="1" t="s">
         <v>34</v>
       </c>
@@ -3797,12 +3793,12 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="10" t="s">
+      <c r="A111" s="10"/>
+      <c r="B111" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
       <c r="E111" s="1" t="s">
         <v>35</v>
       </c>
@@ -3812,12 +3808,12 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="10"/>
+      <c r="B112" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
       <c r="E112" s="1" t="s">
         <v>36</v>
       </c>
@@ -3827,12 +3823,12 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="10" t="s">
+      <c r="A113" s="10"/>
+      <c r="B113" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
       <c r="E113" s="1" t="s">
         <v>37</v>
       </c>
@@ -3842,12 +3838,12 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="10" t="s">
+      <c r="A114" s="10"/>
+      <c r="B114" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
       <c r="E114" s="1" t="s">
         <v>38</v>
       </c>
@@ -3857,12 +3853,12 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="10" t="s">
+      <c r="A115" s="10"/>
+      <c r="B115" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5" t="s">
+      <c r="C115" s="14"/>
+      <c r="D115" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -3874,12 +3870,12 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="10" t="s">
+      <c r="A116" s="10"/>
+      <c r="B116" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
       <c r="E116" s="1" t="s">
         <v>40</v>
       </c>
@@ -3889,12 +3885,12 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="10" t="s">
+      <c r="A117" s="10"/>
+      <c r="B117" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
       <c r="E117" s="1" t="s">
         <v>41</v>
       </c>
@@ -3904,12 +3900,12 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="10" t="s">
+      <c r="A118" s="10"/>
+      <c r="B118" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
       <c r="E118" s="1" t="s">
         <v>42</v>
       </c>
@@ -3919,12 +3915,12 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="10" t="s">
+      <c r="A119" s="10"/>
+      <c r="B119" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
       <c r="E119" s="1" t="s">
         <v>43</v>
       </c>
@@ -3934,12 +3930,12 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="10" t="s">
+      <c r="A120" s="10"/>
+      <c r="B120" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5" t="s">
+      <c r="C120" s="14"/>
+      <c r="D120" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -3951,12 +3947,12 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="10" t="s">
+      <c r="A121" s="10"/>
+      <c r="B121" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
       <c r="E121" s="1" t="s">
         <v>45</v>
       </c>
@@ -3966,12 +3962,12 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="10" t="s">
+      <c r="A122" s="10"/>
+      <c r="B122" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
       <c r="E122" s="1" t="s">
         <v>46</v>
       </c>
@@ -3981,12 +3977,12 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="10" t="s">
+      <c r="A123" s="10"/>
+      <c r="B123" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="1" t="s">
         <v>47</v>
       </c>
@@ -3996,12 +3992,12 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="10" t="s">
+      <c r="A124" s="10"/>
+      <c r="B124" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
       <c r="E124" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,12 +4007,12 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="10" t="s">
+      <c r="A125" s="10"/>
+      <c r="B125" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
       <c r="E125" s="1" t="s">
         <v>49</v>
       </c>
@@ -4026,16 +4022,16 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="10" t="s">
         <v>387</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -4047,12 +4043,12 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="10" t="s">
+      <c r="A127" s="10"/>
+      <c r="B127" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="4"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="10"/>
       <c r="E127" s="1" t="s">
         <v>389</v>
       </c>
@@ -4062,12 +4058,12 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="10" t="s">
+      <c r="A128" s="10"/>
+      <c r="B128" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="4"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="10"/>
       <c r="E128" s="1" t="s">
         <v>390</v>
       </c>
@@ -4077,11 +4073,11 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="10" t="s">
+      <c r="A129" s="10"/>
+      <c r="B129" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C129" s="5"/>
+      <c r="C129" s="14"/>
       <c r="D129" s="1" t="s">
         <v>77</v>
       </c>
@@ -4092,13 +4088,13 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -4111,11 +4107,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="10" t="s">
+      <c r="A131" s="10"/>
+      <c r="B131" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C131" s="5"/>
+      <c r="C131" s="14"/>
       <c r="D131" s="1" t="s">
         <v>195</v>
       </c>
@@ -4126,11 +4122,11 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="10" t="s">
+      <c r="A132" s="10"/>
+      <c r="B132" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C132" s="5"/>
+      <c r="C132" s="14"/>
       <c r="D132" s="1" t="s">
         <v>196</v>
       </c>
@@ -4141,11 +4137,11 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="10" t="s">
+      <c r="A133" s="10"/>
+      <c r="B133" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C133" s="5"/>
+      <c r="C133" s="14"/>
       <c r="D133" s="1" t="s">
         <v>197</v>
       </c>
@@ -4156,11 +4152,11 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="10" t="s">
+      <c r="A134" s="10"/>
+      <c r="B134" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C134" s="5"/>
+      <c r="C134" s="14"/>
       <c r="D134" s="1" t="s">
         <v>198</v>
       </c>
@@ -4171,11 +4167,11 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="10" t="s">
+      <c r="A135" s="10"/>
+      <c r="B135" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C135" s="5"/>
+      <c r="C135" s="14"/>
       <c r="D135" s="1" t="s">
         <v>79</v>
       </c>
@@ -4186,16 +4182,16 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E136" s="1"/>
@@ -4205,12 +4201,12 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-      <c r="B137" s="10" t="s">
+      <c r="A137" s="13"/>
+      <c r="B137" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5" t="s">
+      <c r="C137" s="14"/>
+      <c r="D137" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -4222,12 +4218,12 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
-      <c r="B138" s="10" t="s">
+      <c r="A138" s="13"/>
+      <c r="B138" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
       <c r="E138" s="1" t="s">
         <v>53</v>
       </c>
@@ -4237,12 +4233,12 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
-      <c r="B139" s="10" t="s">
+      <c r="A139" s="13"/>
+      <c r="B139" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
       <c r="E139" s="1" t="s">
         <v>54</v>
       </c>
@@ -4252,12 +4248,12 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
-      <c r="B140" s="10" t="s">
+      <c r="A140" s="13"/>
+      <c r="B140" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5" t="s">
+      <c r="C140" s="14"/>
+      <c r="D140" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -4269,12 +4265,12 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="B141" s="10" t="s">
+      <c r="A141" s="13"/>
+      <c r="B141" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
       <c r="E141" s="1" t="s">
         <v>53</v>
       </c>
@@ -4284,12 +4280,12 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
-      <c r="B142" s="10" t="s">
+      <c r="A142" s="13"/>
+      <c r="B142" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
       <c r="E142" s="1" t="s">
         <v>54</v>
       </c>
@@ -4299,12 +4295,12 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-      <c r="B143" s="10" t="s">
+      <c r="A143" s="13"/>
+      <c r="B143" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5" t="s">
+      <c r="C143" s="14"/>
+      <c r="D143" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -4316,12 +4312,12 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-      <c r="B144" s="10" t="s">
+      <c r="A144" s="13"/>
+      <c r="B144" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
       <c r="E144" s="1" t="s">
         <v>53</v>
       </c>
@@ -4331,12 +4327,12 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="B145" s="10" t="s">
+      <c r="A145" s="13"/>
+      <c r="B145" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
       <c r="E145" s="1" t="s">
         <v>54</v>
       </c>
@@ -4346,12 +4342,12 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="B146" s="10" t="s">
+      <c r="A146" s="13"/>
+      <c r="B146" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5" t="s">
+      <c r="C146" s="14"/>
+      <c r="D146" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -4363,12 +4359,12 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="10" t="s">
+      <c r="A147" s="13"/>
+      <c r="B147" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
       <c r="E147" s="1" t="s">
         <v>53</v>
       </c>
@@ -4378,12 +4374,12 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="10" t="s">
+      <c r="A148" s="13"/>
+      <c r="B148" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
       <c r="E148" s="1" t="s">
         <v>54</v>
       </c>
@@ -4393,12 +4389,12 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-      <c r="B149" s="10" t="s">
+      <c r="A149" s="13"/>
+      <c r="B149" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5" t="s">
+      <c r="C149" s="14"/>
+      <c r="D149" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -4410,12 +4406,12 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="B150" s="10" t="s">
+      <c r="A150" s="13"/>
+      <c r="B150" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
       <c r="E150" s="1" t="s">
         <v>53</v>
       </c>
@@ -4425,12 +4421,12 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="B151" s="10" t="s">
+      <c r="A151" s="13"/>
+      <c r="B151" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
       <c r="E151" s="1" t="s">
         <v>54</v>
       </c>
@@ -4440,12 +4436,12 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
-      <c r="B152" s="10" t="s">
+      <c r="A152" s="13"/>
+      <c r="B152" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5" t="s">
+      <c r="C152" s="14"/>
+      <c r="D152" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -4457,12 +4453,12 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="B153" s="10" t="s">
+      <c r="A153" s="13"/>
+      <c r="B153" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
       <c r="E153" s="1" t="s">
         <v>53</v>
       </c>
@@ -4472,12 +4468,12 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="B154" s="10" t="s">
+      <c r="A154" s="13"/>
+      <c r="B154" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
       <c r="E154" s="1" t="s">
         <v>54</v>
       </c>
@@ -4487,12 +4483,12 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="B155" s="10" t="s">
+      <c r="A155" s="13"/>
+      <c r="B155" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5" t="s">
+      <c r="C155" s="14"/>
+      <c r="D155" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -4504,12 +4500,12 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="B156" s="10" t="s">
+      <c r="A156" s="13"/>
+      <c r="B156" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
       <c r="E156" s="1" t="s">
         <v>53</v>
       </c>
@@ -4519,12 +4515,12 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
-      <c r="B157" s="10" t="s">
+      <c r="A157" s="13"/>
+      <c r="B157" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
       <c r="E157" s="1" t="s">
         <v>54</v>
       </c>
@@ -4534,13 +4530,13 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="10" t="s">
         <v>224</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -4553,11 +4549,11 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="9" t="s">
+      <c r="A159" s="10"/>
+      <c r="B159" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C159" s="4"/>
+      <c r="C159" s="10"/>
       <c r="D159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4568,8 +4564,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="9" t="s">
+      <c r="A160" s="10"/>
+      <c r="B160" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -4583,8 +4579,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="9" t="s">
+      <c r="A161" s="10"/>
+      <c r="B161" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -4598,8 +4594,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="9" t="s">
+      <c r="A162" s="10"/>
+      <c r="B162" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -4613,8 +4609,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="B163" s="9" t="s">
+      <c r="A163" s="10"/>
+      <c r="B163" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -4628,8 +4624,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="9" t="s">
+      <c r="A164" s="10"/>
+      <c r="B164" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -4643,11 +4639,11 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="B165" s="9" t="s">
+      <c r="A165" s="10"/>
+      <c r="B165" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="10" t="s">
         <v>225</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -4660,11 +4656,11 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="B166" s="9" t="s">
+      <c r="A166" s="10"/>
+      <c r="B166" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C166" s="4"/>
+      <c r="C166" s="10"/>
       <c r="D166" s="2" t="s">
         <v>227</v>
       </c>
@@ -4675,11 +4671,11 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="B167" s="9" t="s">
+      <c r="A167" s="10"/>
+      <c r="B167" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C167" s="4"/>
+      <c r="C167" s="10"/>
       <c r="D167" s="2" t="s">
         <v>228</v>
       </c>
@@ -4690,11 +4686,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="9" t="s">
+      <c r="A168" s="10"/>
+      <c r="B168" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C168" s="4"/>
+      <c r="C168" s="10"/>
       <c r="D168" s="2" t="s">
         <v>229</v>
       </c>
@@ -4705,11 +4701,11 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="9" t="s">
+      <c r="A169" s="10"/>
+      <c r="B169" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C169" s="4"/>
+      <c r="C169" s="10"/>
       <c r="D169" s="2" t="s">
         <v>230</v>
       </c>
@@ -4720,11 +4716,11 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="B170" s="9" t="s">
+      <c r="A170" s="10"/>
+      <c r="B170" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -4737,11 +4733,11 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="B171" s="9" t="s">
+      <c r="A171" s="10"/>
+      <c r="B171" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C171" s="4"/>
+      <c r="C171" s="10"/>
       <c r="D171" s="2" t="s">
         <v>217</v>
       </c>
@@ -4752,11 +4748,11 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="B172" s="9" t="s">
+      <c r="A172" s="10"/>
+      <c r="B172" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C172" s="4"/>
+      <c r="C172" s="10"/>
       <c r="D172" s="2" t="s">
         <v>218</v>
       </c>
@@ -4767,11 +4763,11 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="B173" s="9" t="s">
+      <c r="A173" s="10"/>
+      <c r="B173" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C173" s="4"/>
+      <c r="C173" s="10"/>
       <c r="D173" s="2" t="s">
         <v>219</v>
       </c>
@@ -4782,11 +4778,11 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-      <c r="B174" s="9" t="s">
+      <c r="A174" s="10"/>
+      <c r="B174" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C174" s="4"/>
+      <c r="C174" s="10"/>
       <c r="D174" s="2" t="s">
         <v>204</v>
       </c>
@@ -4797,8 +4793,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="B175" s="9" t="s">
+      <c r="A175" s="10"/>
+      <c r="B175" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -4812,8 +4808,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-      <c r="B176" s="9" t="s">
+      <c r="A176" s="10"/>
+      <c r="B176" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -4827,8 +4823,8 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-      <c r="B177" s="9" t="s">
+      <c r="A177" s="10"/>
+      <c r="B177" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -4842,8 +4838,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
-      <c r="B178" s="9" t="s">
+      <c r="A178" s="10"/>
+      <c r="B178" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -4857,8 +4853,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-      <c r="B179" s="9" t="s">
+      <c r="A179" s="10"/>
+      <c r="B179" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -4872,8 +4868,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-      <c r="B180" s="9" t="s">
+      <c r="A180" s="10"/>
+      <c r="B180" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -4887,8 +4883,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
-      <c r="B181" s="9" t="s">
+      <c r="A181" s="10"/>
+      <c r="B181" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -4902,8 +4898,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-      <c r="B182" s="9" t="s">
+      <c r="A182" s="10"/>
+      <c r="B182" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -4917,8 +4913,8 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
-      <c r="B183" s="9" t="s">
+      <c r="A183" s="10"/>
+      <c r="B183" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -4932,11 +4928,11 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
-      <c r="B184" s="9" t="s">
+      <c r="A184" s="10"/>
+      <c r="B184" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="10" t="s">
         <v>345</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -4949,11 +4945,11 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
-      <c r="B185" s="9" t="s">
+      <c r="A185" s="10"/>
+      <c r="B185" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C185" s="4"/>
+      <c r="C185" s="10"/>
       <c r="D185" s="2" t="s">
         <v>347</v>
       </c>
@@ -4964,8 +4960,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
-      <c r="B186" s="9" t="s">
+      <c r="A186" s="10"/>
+      <c r="B186" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -4979,13 +4975,13 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="10" t="s">
         <v>115</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -4998,11 +4994,11 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
-      <c r="B188" s="10" t="s">
+      <c r="A188" s="10"/>
+      <c r="B188" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C188" s="4"/>
+      <c r="C188" s="10"/>
       <c r="D188" s="1" t="s">
         <v>116</v>
       </c>
@@ -5013,11 +5009,11 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
-      <c r="B189" s="10" t="s">
+      <c r="A189" s="10"/>
+      <c r="B189" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C189" s="4"/>
+      <c r="C189" s="10"/>
       <c r="D189" s="1" t="s">
         <v>117</v>
       </c>
@@ -5028,11 +5024,11 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
-      <c r="B190" s="10" t="s">
+      <c r="A190" s="10"/>
+      <c r="B190" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C190" s="4"/>
+      <c r="C190" s="10"/>
       <c r="D190" s="1" t="s">
         <v>118</v>
       </c>
@@ -5043,13 +5039,13 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -5062,11 +5058,11 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
-      <c r="B192" s="10" t="s">
+      <c r="A192" s="10"/>
+      <c r="B192" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C192" s="4"/>
+      <c r="C192" s="10"/>
       <c r="D192" s="1" t="s">
         <v>358</v>
       </c>
@@ -5077,11 +5073,11 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
-      <c r="B193" s="10" t="s">
+      <c r="A193" s="10"/>
+      <c r="B193" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C193" s="4"/>
+      <c r="C193" s="10"/>
       <c r="D193" s="1" t="s">
         <v>357</v>
       </c>
@@ -5092,11 +5088,11 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-      <c r="B194" s="10" t="s">
+      <c r="A194" s="10"/>
+      <c r="B194" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C194" s="4"/>
+      <c r="C194" s="10"/>
       <c r="D194" s="1" t="s">
         <v>356</v>
       </c>
@@ -5110,7 +5106,7 @@
       <c r="A195" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="4" t="s">
         <v>427</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -5124,16 +5120,16 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D196" s="11"/>
+      <c r="D196" s="4"/>
       <c r="E196" s="1"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3">
@@ -5141,14 +5137,14 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
-      <c r="B197" s="10" t="s">
+      <c r="A197" s="10"/>
+      <c r="B197" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D197" s="11"/>
+      <c r="D197" s="4"/>
       <c r="E197" s="1"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3">
@@ -5156,14 +5152,14 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
-      <c r="B198" s="10" t="s">
+      <c r="A198" s="10"/>
+      <c r="B198" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D198" s="11"/>
+      <c r="D198" s="4"/>
       <c r="E198" s="1"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3">
@@ -5171,14 +5167,14 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
-      <c r="B199" s="10" t="s">
+      <c r="A199" s="10"/>
+      <c r="B199" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D199" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -5190,12 +5186,12 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
-      <c r="B200" s="10" t="s">
+      <c r="A200" s="10"/>
+      <c r="B200" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
       <c r="E200" s="1" t="s">
         <v>82</v>
       </c>
@@ -5205,12 +5201,12 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-      <c r="B201" s="10" t="s">
+      <c r="A201" s="10"/>
+      <c r="B201" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
       <c r="E201" s="1" t="s">
         <v>83</v>
       </c>
@@ -5220,12 +5216,12 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
-      <c r="B202" s="10" t="s">
+      <c r="A202" s="10"/>
+      <c r="B202" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
       <c r="E202" s="1" t="s">
         <v>84</v>
       </c>
@@ -5235,12 +5231,12 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
-      <c r="B203" s="10" t="s">
+      <c r="A203" s="10"/>
+      <c r="B203" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
       <c r="E203" s="1" t="s">
         <v>85</v>
       </c>
@@ -5250,12 +5246,12 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
-      <c r="B204" s="10" t="s">
+      <c r="A204" s="10"/>
+      <c r="B204" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
       <c r="E204" s="1" t="s">
         <v>86</v>
       </c>
@@ -5265,18 +5261,18 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
-      <c r="B205" s="10" t="s">
+      <c r="A205" s="10"/>
+      <c r="B205" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4" t="s">
+      <c r="C205" s="10"/>
+      <c r="D205" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F205" s="9" t="s">
+      <c r="F205" s="4" t="s">
         <v>432</v>
       </c>
       <c r="G205" s="3">
@@ -5284,16 +5280,16 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
-      <c r="B206" s="10" t="s">
+      <c r="A206" s="10"/>
+      <c r="B206" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
       <c r="E206" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F206" s="9" t="s">
+      <c r="F206" s="4" t="s">
         <v>432</v>
       </c>
       <c r="G206" s="3">
@@ -5301,16 +5297,16 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
-      <c r="B207" s="10" t="s">
+      <c r="A207" s="10"/>
+      <c r="B207" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
       <c r="E207" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F207" s="9" t="s">
+      <c r="F207" s="4" t="s">
         <v>432</v>
       </c>
       <c r="G207" s="3">
@@ -5318,16 +5314,16 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-      <c r="B208" s="10" t="s">
+      <c r="A208" s="10"/>
+      <c r="B208" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
       <c r="E208" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F208" s="9" t="s">
+      <c r="F208" s="4" t="s">
         <v>432</v>
       </c>
       <c r="G208" s="3">
@@ -5335,16 +5331,16 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-      <c r="B209" s="10" t="s">
+      <c r="A209" s="10"/>
+      <c r="B209" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
       <c r="E209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F209" s="9" t="s">
+      <c r="F209" s="4" t="s">
         <v>432</v>
       </c>
       <c r="G209" s="3">
@@ -5352,16 +5348,16 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
-      <c r="B210" s="10" t="s">
+      <c r="A210" s="10"/>
+      <c r="B210" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
       <c r="E210" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F210" s="9" t="s">
+      <c r="F210" s="4" t="s">
         <v>432</v>
       </c>
       <c r="G210" s="3">
@@ -5369,16 +5365,16 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
-      <c r="B211" s="10" t="s">
+      <c r="A211" s="10"/>
+      <c r="B211" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
       <c r="E211" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F211" s="9" t="s">
+      <c r="F211" s="4" t="s">
         <v>432</v>
       </c>
       <c r="G211" s="3">
@@ -5386,14 +5382,14 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
-      <c r="B212" s="10" t="s">
+      <c r="A212" s="10"/>
+      <c r="B212" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D212" s="11"/>
+      <c r="D212" s="4"/>
       <c r="E212" s="1"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3">
@@ -5401,14 +5397,14 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
-      <c r="B213" s="10" t="s">
+      <c r="A213" s="10"/>
+      <c r="B213" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C213" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D213" s="11"/>
+      <c r="D213" s="4"/>
       <c r="E213" s="1"/>
       <c r="F213" s="3" t="s">
         <v>466</v>
@@ -5418,14 +5414,14 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
-      <c r="B214" s="10" t="s">
+      <c r="A214" s="10"/>
+      <c r="B214" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C214" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D214" s="11"/>
+      <c r="D214" s="4"/>
       <c r="E214" s="1"/>
       <c r="F214" s="3" t="s">
         <v>466</v>
@@ -5435,16 +5431,16 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D215" s="11" t="s">
+      <c r="D215" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E215" s="1"/>
@@ -5454,12 +5450,12 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-      <c r="B216" s="10" t="s">
+      <c r="A216" s="10"/>
+      <c r="B216" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C216" s="4"/>
-      <c r="D216" s="11" t="s">
+      <c r="C216" s="10"/>
+      <c r="D216" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E216" s="1"/>
@@ -5471,12 +5467,12 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
-      <c r="B217" s="10" t="s">
+      <c r="A217" s="10"/>
+      <c r="B217" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C217" s="4"/>
-      <c r="D217" s="11" t="s">
+      <c r="C217" s="10"/>
+      <c r="D217" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E217" s="1"/>
@@ -5488,12 +5484,12 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
-      <c r="B218" s="10" t="s">
+      <c r="A218" s="10"/>
+      <c r="B218" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C218" s="4"/>
-      <c r="D218" s="11" t="s">
+      <c r="C218" s="10"/>
+      <c r="D218" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E218" s="1"/>
@@ -5505,12 +5501,12 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
-      <c r="B219" s="10" t="s">
+      <c r="A219" s="10"/>
+      <c r="B219" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C219" s="4"/>
-      <c r="D219" s="11" t="s">
+      <c r="C219" s="10"/>
+      <c r="D219" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E219" s="1"/>
@@ -5522,12 +5518,12 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
-      <c r="B220" s="10" t="s">
+      <c r="A220" s="10"/>
+      <c r="B220" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C220" s="4"/>
-      <c r="D220" s="11" t="s">
+      <c r="C220" s="10"/>
+      <c r="D220" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E220" s="1"/>
@@ -5539,12 +5535,12 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
-      <c r="B221" s="10" t="s">
+      <c r="A221" s="10"/>
+      <c r="B221" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="11" t="s">
+      <c r="C221" s="10"/>
+      <c r="D221" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E221" s="1"/>
@@ -5556,12 +5552,12 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
-      <c r="B222" s="10" t="s">
+      <c r="A222" s="10"/>
+      <c r="B222" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="12" t="s">
+      <c r="C222" s="10"/>
+      <c r="D222" s="6" t="s">
         <v>491</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -5575,12 +5571,12 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
-      <c r="B223" s="10" t="s">
+      <c r="A223" s="10"/>
+      <c r="B223" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C223" s="4"/>
-      <c r="D223" s="11" t="s">
+      <c r="C223" s="10"/>
+      <c r="D223" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E223" s="1"/>
@@ -5592,12 +5588,12 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
-      <c r="B224" s="10" t="s">
+      <c r="A224" s="10"/>
+      <c r="B224" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C224" s="4"/>
-      <c r="D224" s="6" t="s">
+      <c r="C224" s="10"/>
+      <c r="D224" s="11" t="s">
         <v>491</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -5611,12 +5607,12 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
-      <c r="B225" s="10" t="s">
+      <c r="A225" s="10"/>
+      <c r="B225" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="7"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="12"/>
       <c r="E225" s="1" t="s">
         <v>489</v>
       </c>
@@ -5628,12 +5624,12 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
-      <c r="B226" s="10" t="s">
+      <c r="A226" s="10"/>
+      <c r="B226" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C226" s="4"/>
-      <c r="D226" s="11" t="s">
+      <c r="C226" s="10"/>
+      <c r="D226" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E226" s="1"/>
@@ -5645,12 +5641,12 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
-      <c r="B227" s="10" t="s">
+      <c r="A227" s="10"/>
+      <c r="B227" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C227" s="4"/>
-      <c r="D227" s="11" t="s">
+      <c r="C227" s="10"/>
+      <c r="D227" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E227" s="1"/>
@@ -5662,14 +5658,14 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
-      <c r="B228" s="10" t="s">
+      <c r="A228" s="10"/>
+      <c r="B228" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D228" s="11" t="s">
+      <c r="D228" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E228" s="1"/>
@@ -5681,12 +5677,12 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
-      <c r="B229" s="10" t="s">
+      <c r="A229" s="10"/>
+      <c r="B229" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C229" s="4"/>
-      <c r="D229" s="11" t="s">
+      <c r="C229" s="10"/>
+      <c r="D229" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E229" s="1"/>
@@ -5698,12 +5694,12 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
-      <c r="B230" s="10" t="s">
+      <c r="A230" s="10"/>
+      <c r="B230" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C230" s="4"/>
-      <c r="D230" s="11" t="s">
+      <c r="C230" s="10"/>
+      <c r="D230" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E230" s="1"/>
@@ -5715,12 +5711,12 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
-      <c r="B231" s="10" t="s">
+      <c r="A231" s="10"/>
+      <c r="B231" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C231" s="4"/>
-      <c r="D231" s="11" t="s">
+      <c r="C231" s="10"/>
+      <c r="D231" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E231" s="1"/>
@@ -5732,12 +5728,12 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
-      <c r="B232" s="10" t="s">
+      <c r="A232" s="10"/>
+      <c r="B232" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C232" s="4"/>
-      <c r="D232" s="11" t="s">
+      <c r="C232" s="10"/>
+      <c r="D232" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E232" s="1"/>
@@ -5749,12 +5745,12 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
-      <c r="B233" s="10" t="s">
+      <c r="A233" s="10"/>
+      <c r="B233" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C233" s="4"/>
-      <c r="D233" s="11" t="s">
+      <c r="C233" s="10"/>
+      <c r="D233" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E233" s="1"/>
@@ -5766,12 +5762,12 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
-      <c r="B234" s="10" t="s">
+      <c r="A234" s="10"/>
+      <c r="B234" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C234" s="4"/>
-      <c r="D234" s="11" t="s">
+      <c r="C234" s="10"/>
+      <c r="D234" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E234" s="1"/>
@@ -5783,12 +5779,12 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
-      <c r="B235" s="10" t="s">
+      <c r="A235" s="10"/>
+      <c r="B235" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="11" t="s">
+      <c r="C235" s="10"/>
+      <c r="D235" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E235" s="1"/>
@@ -5800,12 +5796,12 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
-      <c r="B236" s="10" t="s">
+      <c r="A236" s="10"/>
+      <c r="B236" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C236" s="4"/>
-      <c r="D236" s="11" t="s">
+      <c r="C236" s="10"/>
+      <c r="D236" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E236" s="1"/>
@@ -5817,12 +5813,12 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
-      <c r="B237" s="10" t="s">
+      <c r="A237" s="10"/>
+      <c r="B237" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C237" s="4"/>
-      <c r="D237" s="11" t="s">
+      <c r="C237" s="10"/>
+      <c r="D237" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E237" s="1"/>
@@ -5835,11 +5831,47 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A196:A214"/>
-    <mergeCell ref="C215:C227"/>
-    <mergeCell ref="C228:C237"/>
-    <mergeCell ref="A215:A237"/>
-    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="A44:A79"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A43"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="C108:C125"/>
+    <mergeCell ref="D108:D114"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="D120:D125"/>
+    <mergeCell ref="A106:A125"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D140:D142"/>
     <mergeCell ref="A191:A194"/>
     <mergeCell ref="C191:C194"/>
     <mergeCell ref="D126:D128"/>
@@ -5856,47 +5888,11 @@
     <mergeCell ref="A136:A157"/>
     <mergeCell ref="C136:C157"/>
     <mergeCell ref="D155:D157"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="A98:A105"/>
-    <mergeCell ref="C108:C125"/>
-    <mergeCell ref="D108:D114"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="D120:D125"/>
-    <mergeCell ref="A106:A125"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="A44:A79"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A43"/>
-    <mergeCell ref="C20:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A196:A214"/>
+    <mergeCell ref="C215:C227"/>
+    <mergeCell ref="C228:C237"/>
+    <mergeCell ref="A215:A237"/>
+    <mergeCell ref="D224:D225"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
